--- a/automationframework/automationserver/automationtestcase/interface_case.xlsx
+++ b/automationframework/automationserver/automationtestcase/interface_case.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>用例编号</t>
     <rPh sb="0" eb="1">
@@ -123,6 +123,22 @@
   </si>
   <si>
     <t>http://steel.iask.in:8000/Blog/search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联接口参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求Header</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用接口Header</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -188,12 +204,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -477,23 +496,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="13.875" customWidth="1"/>
     <col min="2" max="2" width="39.375" customWidth="1"/>
-    <col min="3" max="3" width="40.5" customWidth="1"/>
-    <col min="4" max="4" width="20.5" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="14.875" customWidth="1"/>
+    <col min="3" max="3" width="22.75" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="36.5" customWidth="1"/>
+    <col min="6" max="6" width="20.5" customWidth="1"/>
+    <col min="7" max="7" width="11.625" customWidth="1"/>
+    <col min="8" max="8" width="16.25" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="14.875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -501,89 +524,117 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="1"/>
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2">
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
+      <c r="J2" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="1"/>
+      <c r="E3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3">
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3">
         <v>1</v>
       </c>
-      <c r="F3" t="s">
+      <c r="J3" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" s="1"/>
+      <c r="E4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="1">
+      <c r="F4" s="1">
         <v>11</v>
       </c>
-      <c r="E4">
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2"/>
+      <c r="D5" s="1"/>
+      <c r="E5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E5">
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5">
         <v>0</v>
       </c>
     </row>

--- a/automationframework/automationserver/automationtestcase/interface_case.xlsx
+++ b/automationframework/automationserver/automationtestcase/interface_case.xlsx
@@ -499,7 +499,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>

--- a/automationframework/automationserver/automationtestcase/interface_case.xlsx
+++ b/automationframework/automationserver/automationtestcase/interface_case.xlsx
@@ -204,7 +204,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -212,6 +212,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -499,7 +502,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="I2" sqref="I2:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -565,7 +568,7 @@
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2">
+      <c r="I2" s="4">
         <v>1</v>
       </c>
       <c r="J2" s="3" t="s">
@@ -589,7 +592,7 @@
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3">
+      <c r="I3" s="4">
         <v>1</v>
       </c>
       <c r="J3" s="3" t="s">
@@ -613,7 +616,7 @@
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4">
+      <c r="I4" s="4">
         <v>1</v>
       </c>
     </row>
@@ -634,7 +637,7 @@
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5">
+      <c r="I5" s="4">
         <v>0</v>
       </c>
     </row>
@@ -647,7 +650,7 @@
     <hyperlink ref="B5" r:id="rId4" display="http://127.0.0.1:8000/Blog/search4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/automationframework/automationserver/automationtestcase/interface_case.xlsx
+++ b/automationframework/automationserver/automationtestcase/interface_case.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>用例编号</t>
     <rPh sb="0" eb="1">
@@ -71,13 +71,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>keyword = 这是, token = 1512353983</t>
-    <rPh sb="10" eb="11">
-      <t>zhe'shi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>请求方式</t>
     <rPh sb="0" eb="1">
       <t>qing'q</t>
@@ -88,23 +81,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://steel.iask.in:8000/Blog/search</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://steel.iask.in:8000/Blog/search</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -115,30 +92,42 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>嘿嘿</t>
-    <rPh sb="0" eb="1">
-      <t>hei'h</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://steel.iask.in:8000/Blog/search</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>关联接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>关联接口参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>请求Header</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>引用接口Header</t>
+    <t>引用请求头接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://api073nwc.zhuishushenqi.com/user/notification/count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://api073nwc.zhuishushenqi.com/user/notification/count?token=ZxLgQa8pC0fnWmDbIcstLry8</t>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'X-Device-Id':'yktkwkykxikoqiotuxuxenxjweaibhvukgoiihfyfj1532713204'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'token': 'ZxLgQa8pC0fnWmDbIcstLry8'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'token': 'lastReadImportantTime','lastReadUnimportantTime':'lastReadUnimportantTime'}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -204,7 +193,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -215,6 +204,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -499,27 +491,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I5"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="13.875" customWidth="1"/>
-    <col min="2" max="2" width="39.375" customWidth="1"/>
-    <col min="3" max="3" width="22.75" customWidth="1"/>
+    <col min="2" max="2" width="64" customWidth="1"/>
+    <col min="3" max="3" width="34.125" customWidth="1"/>
     <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="5" max="5" width="36.5" customWidth="1"/>
+    <col min="5" max="5" width="49.25" customWidth="1"/>
     <col min="6" max="6" width="20.5" customWidth="1"/>
     <col min="7" max="7" width="11.625" customWidth="1"/>
-    <col min="8" max="8" width="16.25" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="14.875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -527,130 +518,95 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="D2" s="1"/>
-      <c r="E2" t="s">
-        <v>5</v>
+      <c r="E2" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="4">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="4">
-        <v>1</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="1"/>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="4">
-        <v>1</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>13</v>
+      <c r="H3" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
+    <row r="4" spans="1:9">
+      <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="1"/>
-      <c r="E4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="1">
-        <v>11</v>
-      </c>
+      <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="4">
-        <v>1</v>
-      </c>
+      <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
+    <row r="5" spans="1:9">
+      <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="1"/>
-      <c r="E5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="4">
-        <v>0</v>
-      </c>
+      <c r="H5" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://127.0.0.1:8000/Blog/search1"/>
-    <hyperlink ref="B3" r:id="rId2" display="http://127.0.0.1:8000/Blog/search2"/>
-    <hyperlink ref="B4" r:id="rId3" display="http://127.0.0.1:8000/Blog/search3"/>
-    <hyperlink ref="B5" r:id="rId4" display="http://127.0.0.1:8000/Blog/search4"/>
+    <hyperlink ref="B2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/automationframework/automationserver/automationtestcase/interface_case.xlsx
+++ b/automationframework/automationserver/automationtestcase/interface_case.xlsx
@@ -12,8 +12,7 @@
     <workbookView xWindow="9000" yWindow="2880" windowWidth="28800" windowHeight="17595" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="interfacecase" sheetId="1" r:id="rId1"/>
-    <sheet name="工作表1" sheetId="2" r:id="rId2"/>
+    <sheet name="interfacecase" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>用例编号</t>
     <rPh sb="0" eb="1">
@@ -104,30 +103,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://api073nwc.zhuishushenqi.com/user/notification/count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://api073nwc.zhuishushenqi.com/user/notification/count?token=ZxLgQa8pC0fnWmDbIcstLry8</t>
   </si>
   <si>
-    <t>get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{'X-Device-Id':'yktkwkykxikoqiotuxuxenxjweaibhvukgoiihfyfj1532713204'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'token': 'ZxLgQa8pC0fnWmDbIcstLry8'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'token': 'lastReadImportantTime','lastReadUnimportantTime':'lastReadUnimportantTime'}</t>
+    <t>http://api.zhuishushenqi.com/user/bookshelf/pop?token=SmmeL8Kg83QkyQhrDt7plZhP&amp;activity=5b4eed95535c163fbaa436c8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'token': 'activityId','lastReadUnimportantTime':'books'}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -491,24 +478,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" max="1" width="13.875" customWidth="1"/>
-    <col min="2" max="2" width="64" customWidth="1"/>
-    <col min="3" max="3" width="34.125" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="5" max="5" width="49.25" customWidth="1"/>
-    <col min="6" max="6" width="20.5" customWidth="1"/>
-    <col min="7" max="7" width="11.625" customWidth="1"/>
-    <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="14.875" style="3" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
@@ -540,19 +516,15 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C2" s="2"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="E2" s="5"/>
       <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
@@ -565,40 +537,27 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="1"/>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
       <c r="H3" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="I3" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -606,19 +565,5 @@
     <hyperlink ref="B2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/automationframework/automationserver/automationtestcase/interface_case.xlsx
+++ b/automationframework/automationserver/automationtestcase/interface_case.xlsx
@@ -106,15 +106,15 @@
     <t>http://api073nwc.zhuishushenqi.com/user/notification/count?token=ZxLgQa8pC0fnWmDbIcstLry8</t>
   </si>
   <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://api.zhuishushenqi.com/user/bookshelf/pop?token=SmmeL8Kg83QkyQhrDt7plZhP&amp;activity=5b4eed95535c163fbaa436c8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{'token': 'activityId','lastReadUnimportantTime':'books'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -481,10 +481,16 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="2" max="2" width="67.5" customWidth="1"/>
+    <col min="3" max="3" width="34.125" customWidth="1"/>
+    <col min="4" max="4" width="24.875" customWidth="1"/>
+    <col min="7" max="7" width="17.875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
@@ -520,7 +526,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1"/>
@@ -546,7 +552,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="1"/>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>6</v>
@@ -555,7 +561,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I3" s="3"/>
     </row>
